--- a/examples/neat/radix_examples/control-tower-data-model-manual-edited.xlsx
+++ b/examples/neat/radix_examples/control-tower-data-model-manual-edited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe\Documents\Radix\Horizontal - Demos\cognite-datamodeling\examples\neat\radix_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe\Documents\Radix\Horizontal - Demos\Cognite-Chatbot\Cognite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC979C3-F379-45D2-8C70-A1EA01357DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49569958-9CC1-4C5B-9188-86216B1596E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="_helper" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Properties!$A$2:$P$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Properties!$A$2:$P$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="407">
   <si>
     <t>role</t>
   </si>
@@ -968,181 +968,301 @@
     <t>Data Points</t>
   </si>
   <si>
+    <t>Radix Control Tower Data Model</t>
+  </si>
+  <si>
+    <t>Radix control tower model made to demonstrate process of Core Data Model extension</t>
+  </si>
+  <si>
+    <t>Radix Control Tower Data Model Created by Horizontal</t>
+  </si>
+  <si>
+    <t>totProduction</t>
+  </si>
+  <si>
+    <t>totProductionDiff</t>
+  </si>
+  <si>
+    <t>Total Production</t>
+  </si>
+  <si>
+    <t>Total Production Difference</t>
+  </si>
+  <si>
+    <t>Total production</t>
+  </si>
+  <si>
+    <t>ordersFulfilled</t>
+  </si>
+  <si>
+    <t>Orders Fulfilled</t>
+  </si>
+  <si>
+    <t>Total of fulfilled orders</t>
+  </si>
+  <si>
+    <t>ordersFulfilledDiff</t>
+  </si>
+  <si>
+    <t>Orders Fulfilled Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total production </t>
+  </si>
+  <si>
+    <t>Difference percentage of fulfilled orders</t>
+  </si>
+  <si>
+    <t>availableProducts</t>
+  </si>
+  <si>
+    <t>emissionReduction</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>satisfaction</t>
+  </si>
+  <si>
+    <t>Available Products</t>
+  </si>
+  <si>
+    <t>Emission Reduction</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>emissionReductionDiff</t>
+  </si>
+  <si>
+    <t>efficiencyDiff</t>
+  </si>
+  <si>
+    <t>satisfactionDiff</t>
+  </si>
+  <si>
+    <t>Emission Reduction Difference</t>
+  </si>
+  <si>
+    <t>Efficiency Difference</t>
+  </si>
+  <si>
+    <t>Satisfaction Difference</t>
+  </si>
+  <si>
+    <t>operatingProfit</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>globalRevenue</t>
+  </si>
+  <si>
+    <t>expenses</t>
+  </si>
+  <si>
+    <t>investmentRD</t>
+  </si>
+  <si>
+    <t>investmentRDpercent</t>
+  </si>
+  <si>
+    <t>Operating Profit</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Global Revenue</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Investment R&amp;D</t>
+  </si>
+  <si>
+    <t>Investment R&amp;D Percentual</t>
+  </si>
+  <si>
+    <t>ManufacturingKPIS</t>
+  </si>
+  <si>
+    <t>FinancialKPIS</t>
+  </si>
+  <si>
+    <t>OEEMonitorKPIS</t>
+  </si>
+  <si>
+    <t>manufacturingKPIS</t>
+  </si>
+  <si>
+    <t>Manufacturing KPIS</t>
+  </si>
+  <si>
+    <t>An automatically updated list of manufacturing KPIS with this asset as their parent.</t>
+  </si>
+  <si>
+    <t>The asset the kpis are related to.</t>
+  </si>
+  <si>
+    <t>manufacturingKPIS_parent</t>
+  </si>
+  <si>
+    <t>financialKPIS</t>
+  </si>
+  <si>
+    <t>Financial KPIS</t>
+  </si>
+  <si>
+    <t>OEE Monitor KPIS</t>
+  </si>
+  <si>
+    <t>An automatically updated list of financial KPIS with this asset as their parent.</t>
+  </si>
+  <si>
+    <t>An automatically updated list of OEE monitor KPIS with this asset as their parent.</t>
+  </si>
+  <si>
+    <t>financialKPIS_parent</t>
+  </si>
+  <si>
+    <t>oeeMonitorKPIS_parent</t>
+  </si>
+  <si>
+    <t>OEEMonitor KPIS</t>
+  </si>
+  <si>
+    <t>http://purl.org/cognite/neat/data-model/verified/physical/radix_space/RadixControlTowerDataModel/v1</t>
+  </si>
+  <si>
+    <t>UtilitiesKPIS</t>
+  </si>
+  <si>
+    <t>naturalGasSupply</t>
+  </si>
+  <si>
+    <t>naturalGasUsage</t>
+  </si>
+  <si>
+    <t>naturalGasSupplyDiff</t>
+  </si>
+  <si>
+    <t>naturalGasUsageDiff</t>
+  </si>
+  <si>
+    <t>steamSupply</t>
+  </si>
+  <si>
+    <t>nitrogenSupply</t>
+  </si>
+  <si>
+    <t>nitrogenSupplyDiff</t>
+  </si>
+  <si>
+    <t>nitrogenUsage</t>
+  </si>
+  <si>
+    <t>nitrogenUsageDiff</t>
+  </si>
+  <si>
+    <t>steamSupplyDiff</t>
+  </si>
+  <si>
+    <t>steamUsage</t>
+  </si>
+  <si>
+    <t>steamUsageDiff</t>
+  </si>
+  <si>
+    <t>Natural Gas Supply</t>
+  </si>
+  <si>
+    <t>Natural Gas Supply Diff</t>
+  </si>
+  <si>
+    <t>Natural Gas Usage</t>
+  </si>
+  <si>
+    <t>Natural Gas Usage Diff</t>
+  </si>
+  <si>
+    <t>Nitrogen Supply</t>
+  </si>
+  <si>
+    <t>Nitrogen Supply Diff</t>
+  </si>
+  <si>
+    <t>Nitrogen Usage</t>
+  </si>
+  <si>
+    <t>Nitrogen Usage Diff</t>
+  </si>
+  <si>
+    <t>Steam Supply</t>
+  </si>
+  <si>
+    <t>Steam Supply Diff</t>
+  </si>
+  <si>
+    <t>Steam Usage</t>
+  </si>
+  <si>
+    <t>Steam Usage Diff</t>
+  </si>
+  <si>
+    <t>utilitiesKPIS_parent</t>
+  </si>
+  <si>
+    <t>PeopleSafetyKPIS</t>
+  </si>
+  <si>
+    <t>accidentRate</t>
+  </si>
+  <si>
+    <t>accidentReduction</t>
+  </si>
+  <si>
+    <t>accidentReductionDiff</t>
+  </si>
+  <si>
+    <t>daysNoAccident</t>
+  </si>
+  <si>
+    <t>Accident Rate</t>
+  </si>
+  <si>
+    <t>Accident Reduction</t>
+  </si>
+  <si>
+    <t>Accident Reduction Difference</t>
+  </si>
+  <si>
+    <t>Days Without Accidents</t>
+  </si>
+  <si>
+    <t>peopleSafetyKPIS_parent</t>
+  </si>
+  <si>
+    <t>Utilities KPIS</t>
+  </si>
+  <si>
+    <t>People Safety KPIS</t>
+  </si>
+  <si>
     <t>RadixControlTowerDataModel</t>
   </si>
   <si>
-    <t>Radix Control Tower Data Model</t>
-  </si>
-  <si>
-    <t>Radix control tower model made to demonstrate process of Core Data Model extension</t>
-  </si>
-  <si>
-    <t>Radix Control Tower Data Model Created by Horizontal</t>
-  </si>
-  <si>
-    <t>totProduction</t>
-  </si>
-  <si>
-    <t>totProductionDiff</t>
-  </si>
-  <si>
-    <t>Total Production</t>
-  </si>
-  <si>
-    <t>Total Production Difference</t>
-  </si>
-  <si>
-    <t>Total production</t>
-  </si>
-  <si>
-    <t>ordersFulfilled</t>
-  </si>
-  <si>
-    <t>Orders Fulfilled</t>
-  </si>
-  <si>
-    <t>Total of fulfilled orders</t>
-  </si>
-  <si>
-    <t>ordersFulfilledDiff</t>
-  </si>
-  <si>
-    <t>Orders Fulfilled Difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total production </t>
-  </si>
-  <si>
-    <t>Difference percentage of fulfilled orders</t>
-  </si>
-  <si>
-    <t>availableProducts</t>
-  </si>
-  <si>
-    <t>emissionReduction</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>satisfaction</t>
-  </si>
-  <si>
-    <t>Available Products</t>
-  </si>
-  <si>
-    <t>Emission Reduction</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Satisfaction</t>
-  </si>
-  <si>
-    <t>emissionReductionDiff</t>
-  </si>
-  <si>
-    <t>efficiencyDiff</t>
-  </si>
-  <si>
-    <t>satisfactionDiff</t>
-  </si>
-  <si>
-    <t>Emission Reduction Difference</t>
-  </si>
-  <si>
-    <t>Efficiency Difference</t>
-  </si>
-  <si>
-    <t>Satisfaction Difference</t>
-  </si>
-  <si>
-    <t>operatingProfit</t>
-  </si>
-  <si>
-    <t>margin</t>
-  </si>
-  <si>
-    <t>globalRevenue</t>
-  </si>
-  <si>
-    <t>expenses</t>
-  </si>
-  <si>
-    <t>investmentRD</t>
-  </si>
-  <si>
-    <t>investmentRDpercent</t>
-  </si>
-  <si>
-    <t>Operating Profit</t>
-  </si>
-  <si>
-    <t>Margin</t>
-  </si>
-  <si>
-    <t>Global Revenue</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Investment R&amp;D</t>
-  </si>
-  <si>
-    <t>Investment R&amp;D Percentual</t>
-  </si>
-  <si>
-    <t>ManufacturingKPIS</t>
-  </si>
-  <si>
-    <t>FinancialKPIS</t>
-  </si>
-  <si>
-    <t>OEEMonitorKPIS</t>
-  </si>
-  <si>
-    <t>manufacturingKPIS</t>
-  </si>
-  <si>
-    <t>Manufacturing KPIS</t>
-  </si>
-  <si>
-    <t>An automatically updated list of manufacturing KPIS with this asset as their parent.</t>
-  </si>
-  <si>
-    <t>The asset the kpis are related to.</t>
-  </si>
-  <si>
-    <t>manufacturingKPIS_parent</t>
-  </si>
-  <si>
-    <t>financialKPIS</t>
-  </si>
-  <si>
-    <t>Financial KPIS</t>
-  </si>
-  <si>
-    <t>OEE Monitor KPIS</t>
-  </si>
-  <si>
-    <t>An automatically updated list of financial KPIS with this asset as their parent.</t>
-  </si>
-  <si>
-    <t>An automatically updated list of OEE monitor KPIS with this asset as their parent.</t>
-  </si>
-  <si>
-    <t>financialKPIS_parent</t>
-  </si>
-  <si>
-    <t>oeeMonitorKPIS_parent</t>
-  </si>
-  <si>
-    <t>OEEMonitor KPIS</t>
-  </si>
-  <si>
-    <t>http://purl.org/cognite/neat/data-model/verified/physical/radix_space/RadixControlTowerDataModel/v1</t>
+    <t>utilitiesKPIS</t>
+  </si>
+  <si>
+    <t>peopleSafetyKPIS</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1252,6 +1372,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1281,7 +1407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1299,6 +1425,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1604,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1651,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1659,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1667,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1691,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1709,11 +1838,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,19 +2431,19 @@
         <v>270</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2334,19 +2463,19 @@
         <v>270</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2366,19 +2495,19 @@
         <v>270</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2394,80 +2523,64 @@
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>58</v>
+      <c r="A19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>405</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>402</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="b">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>357</v>
-      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>312</v>
+      <c r="A20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>406</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="b">
-        <v>0</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>312</v>
-      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2475,20 +2588,22 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>355</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G21" s="7" t="b">
         <v>1</v>
@@ -2504,29 +2619,31 @@
         <v>270</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="P21" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="b">
         <v>1</v>
@@ -2542,7 +2659,7 @@
         <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -2551,16 +2668,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
@@ -2580,7 +2697,7 @@
         <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -2589,18 +2706,20 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="G24" s="7" t="b">
         <v>1</v>
@@ -2616,7 +2735,7 @@
         <v>270</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -2625,15 +2744,17 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D25" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
         <v>268</v>
@@ -2652,7 +2773,7 @@
         <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -2661,18 +2782,18 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G26" s="7" t="b">
         <v>1</v>
@@ -2688,7 +2809,7 @@
         <v>270</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2697,13 +2818,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -2724,7 +2845,7 @@
         <v>270</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2733,13 +2854,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2760,7 +2881,7 @@
         <v>270</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2769,13 +2890,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -2796,7 +2917,7 @@
         <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2805,13 +2926,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -2832,7 +2953,7 @@
         <v>270</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2840,23 +2961,19 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>58</v>
+      <c r="A31" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G31" s="7" t="b">
         <v>1</v>
@@ -2872,24 +2989,22 @@
         <v>270</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>344</v>
+      <c r="A32" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2909,8 +3024,8 @@
       <c r="K32" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>338</v>
+      <c r="L32" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -2919,18 +3034,22 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F33" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G33" s="7" t="b">
         <v>1</v>
@@ -2945,23 +3064,25 @@
       <c r="K33" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>339</v>
+      <c r="L33" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2982,7 +3103,7 @@
         <v>270</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -2991,13 +3112,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -3018,7 +3139,7 @@
         <v>270</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -3027,13 +3148,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -3054,7 +3175,7 @@
         <v>270</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -3063,13 +3184,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -3090,7 +3211,7 @@
         <v>270</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -3098,23 +3219,19 @@
       <c r="P37" s="7"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="A38" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="b">
         <v>1</v>
@@ -3129,32 +3246,28 @@
       <c r="K38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>364</v>
+      <c r="L38" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="P38" s="7"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>286</v>
-      </c>
+      <c r="A39" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="G39" s="7" t="b">
         <v>1</v>
@@ -3169,8 +3282,8 @@
       <c r="K39" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L39" s="7" t="s">
-        <v>283</v>
+      <c r="L39" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -3179,20 +3292,22 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>284</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>289</v>
+        <v>59</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E40" s="7"/>
+        <v>355</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F40" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>1</v>
@@ -3208,25 +3323,27 @@
         <v>270</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
+      <c r="P40" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
@@ -3246,7 +3363,7 @@
         <v>270</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -3255,16 +3372,16 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
@@ -3284,7 +3401,7 @@
         <v>270</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -3293,16 +3410,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
@@ -3322,7 +3439,7 @@
         <v>270</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -3331,16 +3448,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
@@ -3360,7 +3477,7 @@
         <v>270</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -3369,20 +3486,20 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="G45" s="7" t="b">
         <v>1</v>
@@ -3398,7 +3515,7 @@
         <v>270</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -3406,159 +3523,169 @@
       <c r="P45" s="7"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G46" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
+      <c r="A46" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G47" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
+      <c r="A47" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
+      <c r="A48" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>45</v>
+      <c r="A49" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="G49" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="I49" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="K49" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="P49" s="7"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>79</v>
+      <c r="A50" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G50" s="7" t="b">
         <v>1</v>
@@ -3571,30 +3698,30 @@
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7" t="s">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="7" t="s">
-        <v>83</v>
-      </c>
+      <c r="P50" s="7"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C51" s="7"/>
+      <c r="A51" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>381</v>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="G51" s="7" t="b">
         <v>1</v>
@@ -3607,242 +3734,960 @@
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="P51" s="7"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>41</v>
+      <c r="A52" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="G52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="I52" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="7" t="s">
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G58" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G62" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G64" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G66" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G67" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6" t="s">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B74" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G54" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6" t="s">
+      <c r="G74" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L74" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6" t="s">
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6" t="s">
+      <c r="G75" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L75" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6" t="s">
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G56" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6" t="s">
+      <c r="G76" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L76" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6" t="s">
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
+      <c r="G77" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P57" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A2:P77" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3852,37 +4697,37 @@
           <x14:formula1>
             <xm:f>_helper!B$1:B$100</xm:f>
           </x14:formula1>
-          <xm:sqref>K46:K10024 K16:K18 K3:K14</xm:sqref>
+          <xm:sqref>K66:K10044 K3:K14 K16:K20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>_helper!A$1:A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>K15 A3:A10024 K19:K45 F17 B17:C17</xm:sqref>
+          <xm:sqref>F17 K21:K65 K15 B17:C17 A3:A10044</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>_helper!C$1:C$100</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F15 F19:F10024</xm:sqref>
+          <xm:sqref>F21:F10044 F3:F15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>_helper!D$1:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I46:I10024 I38 I16:I19 I3:I14 I31</xm:sqref>
+          <xm:sqref>I66:I10044 I33 I3:I14 I40 I16:I21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>_helper!D$1:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G10024</xm:sqref>
+          <xm:sqref>G3:G10044</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>_helper!D$1:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H46:H10024 H38 H39:I45 H32:I37 H15:I15 H3:H14 H20:I30 H31 H16:H19</xm:sqref>
+          <xm:sqref>I41:I65 H34:I39 H16:H21 H33 H22:I32 H40:H10044 H3:H14 H15:I15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3892,11 +4737,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,301 +4876,280 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>107</v>
+      <c r="A11" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>110</v>
+      <c r="A12" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
         <v>101</v>
       </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -4334,120 +5158,117 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>163</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
         <v>142</v>
@@ -4456,18 +5277,18 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
         <v>101</v>
@@ -4476,86 +5297,95 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>189</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
         <v>101</v>
@@ -4564,68 +5394,99 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>211</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>212</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4638,7 +5499,7 @@
           <x14:formula1>
             <xm:f>_helper!D$1:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F103</xm:sqref>
+          <xm:sqref>F3:F105</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4648,11 +5509,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,7 +5595,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E8" t="s">
         <v>216</v>
@@ -4742,7 +5603,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
         <v>216</v>
@@ -4750,9 +5611,25 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5162,7 +6039,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>IF(ISBLANK(Views!A11), "", Views!A11)</f>
+        <f>IF(ISBLANK(Views!A13), "", Views!A13)</f>
         <v>cdf_cdm:Cognite360Image(version=v1)</v>
       </c>
       <c r="B6" t="e">
@@ -5175,7 +6052,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF(ISBLANK(Views!A12), "", Views!A12)</f>
+        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
         <v>cdf_cdm:Cognite360ImageAnnotation(version=v1)</v>
       </c>
       <c r="B7" t="e">
@@ -5188,7 +6065,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>IF(ISBLANK(Views!A13), "", Views!A13)</f>
+        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
         <v>cdf_cdm:Cognite360ImageCollection(version=v1)</v>
       </c>
       <c r="B8" t="e">
@@ -5201,7 +6078,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
+        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
         <v>cdf_cdm:Cognite360ImageModel(version=v1)</v>
       </c>
       <c r="B9" t="e">
@@ -5214,7 +6091,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
+        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
         <v>cdf_cdm:Cognite360ImageStation(version=v1)</v>
       </c>
       <c r="B10" t="e">
@@ -5227,7 +6104,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
+        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
         <v>cdf_cdm:Cognite3DModel(version=v1)</v>
       </c>
       <c r="B11" t="e">
@@ -5240,7 +6117,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
+        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
         <v>cdf_cdm:Cognite3DObject(version=v1)</v>
       </c>
       <c r="B12" t="str">
@@ -5253,7 +6130,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
+        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
         <v>cdf_cdm:Cognite3DRevision(version=v1)</v>
       </c>
       <c r="B13" t="str">
@@ -5266,7 +6143,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
+        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
         <v>cdf_cdm:Cognite3DTransformation(version=v1)</v>
       </c>
       <c r="B14" t="str">
@@ -5280,12 +6157,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
+        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
         <v>cdf_cdm:CogniteActivity(version=v1)</v>
       </c>
       <c r="B15" t="str">
         <f>IF(ISBLANK(Containers!A11), "", Containers!A11)</f>
-        <v/>
+        <v>UtilitiesKPIS</v>
       </c>
       <c r="C15" t="str">
         <f>IF(ISBLANK(Views!A4), "", Views!A4)</f>
@@ -5294,12 +6171,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
+        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
         <v>cdf_cdm:CogniteAnnotation(version=v1)</v>
       </c>
       <c r="B16" t="str">
         <f>IF(ISBLANK(Containers!A12), "", Containers!A12)</f>
-        <v/>
+        <v>PeopleSafetyKPIS</v>
       </c>
       <c r="C16" t="str">
         <f>IF(ISBLANK(Views!A5), "", Views!A5)</f>
@@ -5308,7 +6185,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
+        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
         <v>cdf_cdm:CogniteAsset(version=v1)</v>
       </c>
       <c r="B17" t="str">
@@ -5322,7 +6199,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
+        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
         <v>cdf_cdm:CogniteAssetClass(version=v1)</v>
       </c>
       <c r="B18" t="str">
@@ -5336,7 +6213,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
+        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
         <v>cdf_cdm:CogniteAssetType(version=v1)</v>
       </c>
       <c r="B19" t="str">
@@ -5344,13 +6221,13 @@
         <v/>
       </c>
       <c r="C19" t="str">
-        <f>IF(ISBLANK(Views!A11), "", Views!A11)</f>
+        <f>IF(ISBLANK(Views!A13), "", Views!A13)</f>
         <v>cdf_cdm:Cognite360Image(version=v1)</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
+        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
         <v>cdf_cdm:CogniteCADModel(version=v1)</v>
       </c>
       <c r="B20" t="str">
@@ -5358,13 +6235,13 @@
         <v/>
       </c>
       <c r="C20" t="str">
-        <f>IF(ISBLANK(Views!A12), "", Views!A12)</f>
+        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
         <v>cdf_cdm:Cognite360ImageAnnotation(version=v1)</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
+        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
         <v>cdf_cdm:CogniteCADNode(version=v1)</v>
       </c>
       <c r="B21" t="str">
@@ -5372,13 +6249,13 @@
         <v/>
       </c>
       <c r="C21" t="str">
-        <f>IF(ISBLANK(Views!A13), "", Views!A13)</f>
+        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
         <v>cdf_cdm:Cognite360ImageCollection(version=v1)</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
+        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
         <v>cdf_cdm:CogniteCADRevision(version=v1)</v>
       </c>
       <c r="B22" t="str">
@@ -5386,13 +6263,13 @@
         <v/>
       </c>
       <c r="C22" t="str">
-        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
+        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
         <v>cdf_cdm:Cognite360ImageModel(version=v1)</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
+        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
         <v>cdf_cdm:CogniteCubeMap(version=v1)</v>
       </c>
       <c r="B23" t="str">
@@ -5400,13 +6277,13 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
+        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
         <v>cdf_cdm:Cognite360ImageStation(version=v1)</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
+        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
         <v>cdf_cdm:CogniteDescribable(version=v1)</v>
       </c>
       <c r="B24" t="str">
@@ -5414,13 +6291,13 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
+        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
         <v>cdf_cdm:Cognite3DModel(version=v1)</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
+        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
         <v>cdf_cdm:CogniteDiagramAnnotation(version=v1)</v>
       </c>
       <c r="B25" t="str">
@@ -5428,13 +6305,13 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
+        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
         <v>cdf_cdm:Cognite3DObject(version=v1)</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
+        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
         <v>cdf_cdm:CogniteEquipment(version=v1)</v>
       </c>
       <c r="B26" t="str">
@@ -5442,13 +6319,13 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
+        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
         <v>cdf_cdm:Cognite3DRevision(version=v1)</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
+        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
         <v>cdf_cdm:CogniteEquipmentType(version=v1)</v>
       </c>
       <c r="B27" t="str">
@@ -5456,13 +6333,13 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
+        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
         <v>cdf_cdm:Cognite3DTransformation(version=v1)</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
+        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
         <v>cdf_cdm:CogniteFile(version=v1)</v>
       </c>
       <c r="B28" t="str">
@@ -5470,13 +6347,13 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
+        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
         <v>cdf_cdm:CogniteActivity(version=v1)</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
+        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
         <v>cdf_cdm:CogniteFileCategory(version=v1)</v>
       </c>
       <c r="B29" t="str">
@@ -5484,13 +6361,13 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
+        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
         <v>cdf_cdm:CogniteAnnotation(version=v1)</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
+        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
         <v>cdf_cdm:CognitePointCloudModel(version=v1)</v>
       </c>
       <c r="B30" t="str">
@@ -5498,13 +6375,13 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
+        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
         <v>cdf_cdm:CogniteAsset(version=v1)</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
+        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
         <v>cdf_cdm:CognitePointCloudRevision(version=v1)</v>
       </c>
       <c r="B31" t="str">
@@ -5512,13 +6389,13 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
+        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
         <v>cdf_cdm:CogniteAssetClass(version=v1)</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
+        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
         <v>cdf_cdm:CognitePointCloudVolume(version=v1)</v>
       </c>
       <c r="B32" t="str">
@@ -5526,13 +6403,13 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
+        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
         <v>cdf_cdm:CogniteAssetType(version=v1)</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
+        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
         <v>cdf_cdm:CogniteSchedulable(version=v1)</v>
       </c>
       <c r="B33" t="str">
@@ -5540,13 +6417,13 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
+        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
         <v>cdf_cdm:CogniteCADModel(version=v1)</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
+        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
         <v>cdf_cdm:CogniteSourceSystem(version=v1)</v>
       </c>
       <c r="B34" t="str">
@@ -5554,13 +6431,13 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
+        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
         <v>cdf_cdm:CogniteCADNode(version=v1)</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
+        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
         <v>cdf_cdm:CogniteSourceable(version=v1)</v>
       </c>
       <c r="B35" t="str">
@@ -5568,13 +6445,13 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
+        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
         <v>cdf_cdm:CogniteCADRevision(version=v1)</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
+        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
         <v>cdf_cdm:CogniteTimeSeries(version=v1)</v>
       </c>
       <c r="B36" t="str">
@@ -5582,13 +6459,13 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
+        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
         <v>cdf_cdm:CogniteCubeMap(version=v1)</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
+        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
         <v>cdf_cdm:CogniteUnit(version=v1)</v>
       </c>
       <c r="B37" t="str">
@@ -5596,13 +6473,13 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
+        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
         <v>cdf_cdm:CogniteDescribable(version=v1)</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
+        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
         <v>cdf_cdm:CogniteVisualizable(version=v1)</v>
       </c>
       <c r="B38" t="str">
@@ -5610,13 +6487,13 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
+        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
         <v>cdf_cdm:CogniteDiagramAnnotation(version=v1)</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
+        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
         <v/>
       </c>
       <c r="B39" t="str">
@@ -5624,13 +6501,13 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
+        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
         <v>cdf_cdm:CogniteEquipment(version=v1)</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
+        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
         <v/>
       </c>
       <c r="B40" t="str">
@@ -5638,13 +6515,13 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
+        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
         <v>cdf_cdm:CogniteEquipmentType(version=v1)</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
+        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
         <v/>
       </c>
       <c r="B41" t="str">
@@ -5652,13 +6529,13 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
+        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
         <v>cdf_cdm:CogniteFile(version=v1)</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
+        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
         <v/>
       </c>
       <c r="B42" t="str">
@@ -5666,13 +6543,13 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
+        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
         <v>cdf_cdm:CogniteFileCategory(version=v1)</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
+        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
         <v/>
       </c>
       <c r="B43" t="str">
@@ -5680,13 +6557,13 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
+        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
         <v>cdf_cdm:CognitePointCloudModel(version=v1)</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
+        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
         <v/>
       </c>
       <c r="B44" t="str">
@@ -5694,13 +6571,13 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
+        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
         <v>cdf_cdm:CognitePointCloudRevision(version=v1)</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
+        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
         <v/>
       </c>
       <c r="B45" t="str">
@@ -5708,13 +6585,13 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
+        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
         <v>cdf_cdm:CognitePointCloudVolume(version=v1)</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
+        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
         <v/>
       </c>
       <c r="B46" t="str">
@@ -5722,13 +6599,13 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
+        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
         <v>cdf_cdm:CogniteSchedulable(version=v1)</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
+        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
         <v/>
       </c>
       <c r="B47" t="str">
@@ -5736,13 +6613,13 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
+        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
         <v>cdf_cdm:CogniteSourceSystem(version=v1)</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
+        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
         <v/>
       </c>
       <c r="B48" t="str">
@@ -5750,13 +6627,13 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
+        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
         <v>cdf_cdm:CogniteSourceable(version=v1)</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
+        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
         <v/>
       </c>
       <c r="B49" t="str">
@@ -5764,13 +6641,13 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
+        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
         <v>cdf_cdm:CogniteTimeSeries(version=v1)</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
+        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
         <v/>
       </c>
       <c r="B50" t="str">
@@ -5778,13 +6655,13 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
+        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
         <v>cdf_cdm:CogniteUnit(version=v1)</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
+        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
         <v/>
       </c>
       <c r="B51" t="str">
@@ -5792,13 +6669,13 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
+        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
         <v>cdf_cdm:CogniteVisualizable(version=v1)</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
+        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
         <v/>
       </c>
       <c r="B52" t="str">
@@ -5806,13 +6683,13 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
+        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
+        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
         <v/>
       </c>
       <c r="B53" t="str">
@@ -5820,13 +6697,13 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
+        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
+        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
         <v/>
       </c>
       <c r="B54" t="str">
@@ -5834,13 +6711,13 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
+        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
+        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
         <v/>
       </c>
       <c r="B55" t="str">
@@ -5848,13 +6725,13 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
+        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
+        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
         <v/>
       </c>
       <c r="B56" t="str">
@@ -5862,13 +6739,13 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
+        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
+        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
         <v/>
       </c>
       <c r="B57" t="str">
@@ -5876,13 +6753,13 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
+        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
+        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
         <v/>
       </c>
       <c r="B58" t="str">
@@ -5890,13 +6767,13 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
+        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
+        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
         <v/>
       </c>
       <c r="B59" t="str">
@@ -5904,13 +6781,13 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
+        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
+        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
         <v/>
       </c>
       <c r="B60" t="str">
@@ -5918,13 +6795,13 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
+        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
+        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
         <v/>
       </c>
       <c r="B61" t="str">
@@ -5932,13 +6809,13 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
+        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
+        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
         <v/>
       </c>
       <c r="B62" t="str">
@@ -5946,13 +6823,13 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
+        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
+        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
         <v/>
       </c>
       <c r="B63" t="str">
@@ -5960,13 +6837,13 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
+        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
+        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
         <v/>
       </c>
       <c r="B64" t="str">
@@ -5974,13 +6851,13 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
+        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
+        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
         <v/>
       </c>
       <c r="B65" t="str">
@@ -5988,13 +6865,13 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
+        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
+        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
         <v/>
       </c>
       <c r="B66" t="str">
@@ -6002,13 +6879,13 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
+        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
+        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
         <v/>
       </c>
       <c r="B67" t="str">
@@ -6016,13 +6893,13 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
+        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
+        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
         <v/>
       </c>
       <c r="B68" t="str">
@@ -6030,13 +6907,13 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
+        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
+        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
         <v/>
       </c>
       <c r="B69" t="str">
@@ -6044,13 +6921,13 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
+        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
+        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
         <v/>
       </c>
       <c r="B70" t="str">
@@ -6058,13 +6935,13 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
+        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
+        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
         <v/>
       </c>
       <c r="B71" t="str">
@@ -6072,13 +6949,13 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
+        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
+        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
         <v/>
       </c>
       <c r="B72" t="str">
@@ -6086,13 +6963,13 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
+        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
+        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
         <v/>
       </c>
       <c r="B73" t="str">
@@ -6100,13 +6977,13 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
+        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
+        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
         <v/>
       </c>
       <c r="B74" t="str">
@@ -6114,13 +6991,13 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
+        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
+        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
         <v/>
       </c>
       <c r="B75" t="str">
@@ -6128,13 +7005,13 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
+        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
+        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
         <v/>
       </c>
       <c r="B76" t="str">
@@ -6142,13 +7019,13 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
+        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
+        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
         <v/>
       </c>
       <c r="B77" t="str">
@@ -6156,13 +7033,13 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
+        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
+        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
         <v/>
       </c>
       <c r="B78" t="str">
@@ -6170,13 +7047,13 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
+        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
+        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
         <v/>
       </c>
       <c r="B79" t="str">
@@ -6184,13 +7061,13 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
+        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
+        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
         <v/>
       </c>
       <c r="B80" t="str">
@@ -6198,13 +7075,13 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
+        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
+        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
         <v/>
       </c>
       <c r="B81" t="str">
@@ -6212,13 +7089,13 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
+        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
+        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
         <v/>
       </c>
       <c r="B82" t="str">
@@ -6226,13 +7103,13 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
+        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
+        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
         <v/>
       </c>
       <c r="B83" t="str">
@@ -6240,13 +7117,13 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
+        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
+        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
         <v/>
       </c>
       <c r="B84" t="str">
@@ -6254,13 +7131,13 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
+        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
+        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
         <v/>
       </c>
       <c r="B85" t="str">
@@ -6268,13 +7145,13 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
+        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
+        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
         <v/>
       </c>
       <c r="B86" t="str">
@@ -6282,13 +7159,13 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
+        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
+        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
         <v/>
       </c>
       <c r="B87" t="str">
@@ -6296,13 +7173,13 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
+        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
+        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
         <v/>
       </c>
       <c r="B88" t="str">
@@ -6310,13 +7187,13 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
+        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
+        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
         <v/>
       </c>
       <c r="B89" t="str">
@@ -6324,13 +7201,13 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
+        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
+        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
         <v/>
       </c>
       <c r="B90" t="str">
@@ -6338,13 +7215,13 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
+        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
+        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
         <v/>
       </c>
       <c r="B91" t="str">
@@ -6352,13 +7229,13 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
+        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
+        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
         <v/>
       </c>
       <c r="B92" t="str">
@@ -6366,13 +7243,13 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
+        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
+        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
         <v/>
       </c>
       <c r="B93" t="str">
@@ -6380,13 +7257,13 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
+        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
+        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
         <v/>
       </c>
       <c r="B94" t="str">
@@ -6394,13 +7271,13 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
+        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
+        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
         <v/>
       </c>
       <c r="B95" t="str">
@@ -6408,13 +7285,13 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
+        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
+        <f>IF(ISBLANK(Views!A103), "", Views!A103)</f>
         <v/>
       </c>
       <c r="B96" t="str">
@@ -6422,13 +7299,13 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
+        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
+        <f>IF(ISBLANK(Views!A104), "", Views!A104)</f>
         <v/>
       </c>
       <c r="B97" t="str">
@@ -6436,13 +7313,13 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
+        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>IF(ISBLANK(Views!A103), "", Views!A103)</f>
+        <f>IF(ISBLANK(Views!A105), "", Views!A105)</f>
         <v/>
       </c>
       <c r="B98" t="str">
@@ -6450,13 +7327,13 @@
         <v/>
       </c>
       <c r="C98" t="str">
-        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
+        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>IF(ISBLANK(Views!A104), "", Views!A104)</f>
+        <f>IF(ISBLANK(Views!A106), "", Views!A106)</f>
         <v/>
       </c>
       <c r="B99" t="str">
@@ -6464,13 +7341,13 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
+        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>IF(ISBLANK(Views!A105), "", Views!A105)</f>
+        <f>IF(ISBLANK(Views!A107), "", Views!A107)</f>
         <v/>
       </c>
       <c r="B100" t="str">
@@ -6478,85 +7355,85 @@
         <v/>
       </c>
       <c r="C100" t="str">
-        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
+        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C101" t="str">
-        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
+        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C102" t="str">
-        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
+        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C103" t="str">
-        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
+        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C104" t="str">
-        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
+        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C105" t="str">
-        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
+        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C106" t="str">
-        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
+        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C107" t="str">
-        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
+        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C108" t="str">
-        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
+        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C109" t="str">
-        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
+        <f>IF(ISBLANK(Views!A103), "", Views!A103)</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C110" t="str">
-        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
+        <f>IF(ISBLANK(Views!A104), "", Views!A104)</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C111" t="str">
-        <f>IF(ISBLANK(Views!A103), "", Views!A103)</f>
+        <f>IF(ISBLANK(Views!A105), "", Views!A105)</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C112" t="str">
-        <f>IF(ISBLANK(Views!A104), "", Views!A104)</f>
+        <f>IF(ISBLANK(Views!A106), "", Views!A106)</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" t="str">
-        <f>IF(ISBLANK(Views!A105), "", Views!A105)</f>
+        <f>IF(ISBLANK(Views!A107), "", Views!A107)</f>
         <v/>
       </c>
     </row>
